--- a/files/datatest.xlsx
+++ b/files/datatest.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +617,1179 @@
         </is>
       </c>
       <c r="C15" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>-2</t>
         </is>
@@ -633,7 +1806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -896,6 +2069,1179 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>*1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>*2</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
